--- a/Musdes/BA Musyawarah Desa.xlsx
+++ b/Musdes/BA Musyawarah Desa.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data\PEMDES\Administrasi\Musdes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Documents\Pemdes Kambingan Barat\administrasi\Musdes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21930C8-3219-49C2-8700-5C6C3766EE29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="931" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="931"/>
   </bookViews>
   <sheets>
-    <sheet name="BA MUSDES" sheetId="20" r:id="rId1"/>
-    <sheet name="DAFTAR HADIR MUSDES" sheetId="44" r:id="rId2"/>
-    <sheet name="DAFTAR HASIL MUSDES" sheetId="47" r:id="rId3"/>
-    <sheet name="UND MUSDES" sheetId="48" r:id="rId4"/>
-    <sheet name="SUSUNAN ACARA MUSDES" sheetId="50" r:id="rId5"/>
+    <sheet name="BIODATA" sheetId="51" r:id="rId1"/>
+    <sheet name="BA MUSDES" sheetId="20" r:id="rId2"/>
+    <sheet name="DAFTAR HADIR MUSDES" sheetId="44" r:id="rId3"/>
+    <sheet name="DAFTAR HASIL MUSDES" sheetId="47" r:id="rId4"/>
+    <sheet name="UND MUSDES" sheetId="48" r:id="rId5"/>
+    <sheet name="SUSUNAN ACARA MUSDES" sheetId="50" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="\Z" localSheetId="1">#REF!</definedName>
     <definedName name="\Z" localSheetId="2">#REF!</definedName>
+    <definedName name="\Z" localSheetId="3">#REF!</definedName>
+    <definedName name="\Z" localSheetId="5">#REF!</definedName>
     <definedName name="\Z" localSheetId="4">#REF!</definedName>
-    <definedName name="\Z" localSheetId="3">#REF!</definedName>
     <definedName name="\Z">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BA MUSDES'!$A$1:$P$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'DAFTAR HADIR MUSDES'!$A$1:$H$103</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'DAFTAR HASIL MUSDES'!$A$1:$G$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'SUSUNAN ACARA MUSDES'!$A$1:$E$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'UND MUSDES'!$A$1:$W$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'BA MUSDES'!$A$1:$P$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'DAFTAR HADIR MUSDES'!$A$1:$H$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'DAFTAR HASIL MUSDES'!$A$1:$G$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'SUSUNAN ACARA MUSDES'!$A$1:$E$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'UND MUSDES'!$A$1:$W$57</definedName>
     <definedName name="_xlnm.Print_Area">'[1]F-25.b LEMBAR CATATAN'!$A$3:$L$68</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'DAFTAR HADIR MUSDES'!$10:$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'DAFTAR HASIL MUSDES'!$6:$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'SUSUNAN ACARA MUSDES'!$7:$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'DAFTAR HADIR MUSDES'!$10:$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'DAFTAR HASIL MUSDES'!$6:$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'SUSUNAN ACARA MUSDES'!$7:$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
   <si>
     <t>:</t>
   </si>
@@ -196,18 +196,9 @@
     <t>TANDA TANGAN</t>
   </si>
   <si>
-    <t>RENCANA KERJA PEMERINTAH DESA (R-RKP DESA) TAHUN 2020</t>
-  </si>
-  <si>
-    <t>……………………………</t>
-  </si>
-  <si>
     <t xml:space="preserve">DAFTAR HASIL MUSYAWARAH DESA </t>
   </si>
   <si>
-    <t>RENCANA KERJA PEMERINTAH DESA TAHUN 2020</t>
-  </si>
-  <si>
     <t>Sumber Pendanaan</t>
   </si>
   <si>
@@ -352,9 +343,6 @@
     <t>Camat atau yg mewakili</t>
   </si>
   <si>
-    <t>ini adalah Contoh Susunan Acara Pelaksanaan Musdes RKP Desa **</t>
-  </si>
-  <si>
     <t>BPD dan Sekdes</t>
   </si>
   <si>
@@ -367,21 +355,12 @@
     <t>Penyampaian dari BPD</t>
   </si>
   <si>
-    <t xml:space="preserve">                                      Sekretaris BPD</t>
-  </si>
-  <si>
-    <t>Balai Desa Jaya Karet</t>
-  </si>
-  <si>
     <t>Menyepakati Hasil Pencermatan Ulang RPJM Desa Jaya Karet Tahun 2018 s/d 2023</t>
   </si>
   <si>
     <t>Hasil Pencermatan Ulang RPJM Desa Jaya Karet Tahun 2018 s/d 2023</t>
   </si>
   <si>
-    <t>DESA JAYA KARET KECAMATAN MENTAYA HILIR SELATAN</t>
-  </si>
-  <si>
     <t>Pencermatan Ulang RPJM Desa Jaya Karet Tahun 2018 s/d 2023</t>
   </si>
   <si>
@@ -397,57 +376,9 @@
     <t>dari(PLD)</t>
   </si>
   <si>
-    <t>PENYUSUNAN RKP DESA KAMBINGAN BARAT TAHUN 2020</t>
-  </si>
-  <si>
-    <t>Berkaitan dengan penyusunan Rencana Kerja Pemerintah Desa  (RKP Desa)                         di Desa  Kambingan Barat Kecamatan Lenteng Kabupaten Sumenep  Provinsi Jawa Timur Tahun 2020 pada :</t>
-  </si>
-  <si>
-    <t>telah  diadakan  Acara  Musyawarah Desa  yang  dihadiri  oleh Kepala Desa, Perangkat Desa, BPD, Lembaga Kemasyarakatan dan Masyarakat Desa Kambingan Barat sebagaimana Daftar Hadir Terlampir.</t>
-  </si>
-  <si>
-    <t>Kambingan Barat, ….. …....... 2019</t>
-  </si>
-  <si>
-    <t>Ketua BPD Kambingan Barat,</t>
-  </si>
-  <si>
     <t>MUNIHAM</t>
   </si>
   <si>
-    <t>Kepala Desa Kambingan Barat,</t>
-  </si>
-  <si>
-    <t>AKH. ZAINUDDIN</t>
-  </si>
-  <si>
-    <t>Ketua BPD Kambingan Barat</t>
-  </si>
-  <si>
-    <t>Kepala Desa Kambingan Barat</t>
-  </si>
-  <si>
-    <t>Kambingan Barat, …….. …..... 2019</t>
-  </si>
-  <si>
-    <t>DESA KAMBINGAN BARAT KECAMATAN LENTENG SUMENEP</t>
-  </si>
-  <si>
-    <t>KAMBINGAN BARAT</t>
-  </si>
-  <si>
-    <t>LENTENG</t>
-  </si>
-  <si>
-    <t>SUMENEP</t>
-  </si>
-  <si>
-    <t>JAWA TIMUR</t>
-  </si>
-  <si>
-    <t>Kambingan Barat, ….............. 2019</t>
-  </si>
-  <si>
     <t>MOH. USMAN</t>
   </si>
   <si>
@@ -469,18 +400,102 @@
     <t>KETUA BPD KAMBINGAN BARAT,</t>
   </si>
   <si>
-    <t xml:space="preserve">                    Kambingan Barat, ….. ….... 2019</t>
+    <t>ALAMAT &amp; NAMA DESA</t>
+  </si>
+  <si>
+    <t>Kambingan Barat</t>
+  </si>
+  <si>
+    <t>Lenteng</t>
+  </si>
+  <si>
+    <t>Sumenep</t>
+  </si>
+  <si>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t>APARATUR DESA</t>
+  </si>
+  <si>
+    <t>KEPALA DESA</t>
+  </si>
+  <si>
+    <t>AKH. ZAINUDDIN, SE.MM.</t>
+  </si>
+  <si>
+    <t>DESA</t>
+  </si>
+  <si>
+    <t>KECAMATAN</t>
+  </si>
+  <si>
+    <t>KABUPATEN</t>
+  </si>
+  <si>
+    <t>PROVINSI</t>
+  </si>
+  <si>
+    <t>SEKRETARIS DESA</t>
+  </si>
+  <si>
+    <t>MOH. ASDIN</t>
+  </si>
+  <si>
+    <t>BPD</t>
+  </si>
+  <si>
+    <t>KETUA</t>
+  </si>
+  <si>
+    <t>SEKRETARIS</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>BULAN</t>
+  </si>
+  <si>
+    <t>Desember</t>
+  </si>
+  <si>
+    <t>TAHUN</t>
+  </si>
+  <si>
+    <t>WAKTU &amp; TEMPAT DILAKSANAKAN</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>08:00 WIB</t>
+  </si>
+  <si>
+    <t>Balai Desa Kambingan Barat</t>
+  </si>
+  <si>
+    <t>MUSDES TAHUN</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t>PERWAKILAN KELOMPOK MASYARAKAT</t>
+  </si>
+  <si>
+    <t>NASIRUDDIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,8 +605,16 @@
       <name val="Bookman Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +624,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,8 +838,8 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -815,9 +850,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -825,7 +860,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -856,7 +891,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -914,7 +949,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -936,9 +971,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,32 +1016,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,6 +1076,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1055,15 +1090,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1107,17 +1133,23 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1128,26 +1160,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Comma [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Comma 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Comma 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="1"/>
+    <cellStyle name="Comma [0] 3" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="9"/>
+    <cellStyle name="Comma 3" xfId="10"/>
+    <cellStyle name="Comma 4" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 7" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 7 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 8 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 9" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 6" xfId="12"/>
+    <cellStyle name="Normal 7" xfId="13"/>
+    <cellStyle name="Normal 7 2" xfId="14"/>
+    <cellStyle name="Normal 8" xfId="8"/>
+    <cellStyle name="Normal 8 2" xfId="15"/>
+    <cellStyle name="Normal 9" xfId="16"/>
+    <cellStyle name="Percent 2" xfId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1300,23 +1351,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1352,23 +1386,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1544,14 +1561,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="118">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="122"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="122"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="119" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="123"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="119" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="122"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="119" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="121">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="121" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="122"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2346,64 +2550,65 @@
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="18">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
     </row>
     <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
+      <c r="A3" s="70" t="str">
+        <f>UPPER(CONCATENATE("PENYUSUNAN RKP DESA ",BIODATA!B4," TAHUN ",BIODATA!B1))</f>
+        <v>PENYUSUNAN RKP DESA KAMBINGAN BARAT TAHUN 2020</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
     </row>
     <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="24"/>
@@ -2440,24 +2645,25 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="51" customHeight="1">
-      <c r="A7" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
+      <c r="A7" s="72" t="str">
+        <f>CONCATENATE("Berkaitan dengan penyusunan Rencana Kerja Pemerintah Desa  (RKP Desa)                         di Desa  ",BIODATA!B4," Kecamatan ",BIODATA!B5," Kabupaten ",BIODATA!B6,"  Provinsi ",BIODATA!B7,"  Tahun ",BIODATA!B1," pada :")</f>
+        <v>Berkaitan dengan penyusunan Rencana Kerja Pemerintah Desa  (RKP Desa)                         di Desa  Kambingan Barat Kecamatan Lenteng Kabupaten Sumenep  Provinsi Jawa Timur  Tahun 2020 pada :</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
     </row>
     <row r="8" spans="1:16" ht="9.75" customHeight="1">
       <c r="A8" s="17"/>
@@ -2487,7 +2693,10 @@
       <c r="F9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="str">
+        <f>CONCATENATE(BIODATA!B18,", ",BIODATA!B19," ",BIODATA!B20," ",BIODATA!B21)</f>
+        <v>Kamis, 05 Desember 2019</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2508,7 +2717,10 @@
       <c r="F10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="114" t="str">
+        <f>BIODATA!B22</f>
+        <v>08:00 WIB</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2529,7 +2741,10 @@
       <c r="F11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="114" t="str">
+        <f>BIODATA!B23</f>
+        <v>Balai Desa Kambingan Barat</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2557,24 +2772,25 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A13" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
+      <c r="A13" s="67" t="str">
+        <f>CONCATENATE("telah  diadakan  Acara  Musyawarah Desa  yang  dihadiri  oleh Kepala Desa, Perangkat Desa, BPD, Lembaga Kemasyarakatan dan Masyarakat Desa ",BIODATA!B4," sebagaimana Daftar Hadir Terlampir.")</f>
+        <v>telah  diadakan  Acara  Musyawarah Desa  yang  dihadiri  oleh Kepala Desa, Perangkat Desa, BPD, Lembaga Kemasyarakatan dan Masyarakat Desa Kambingan Barat sebagaimana Daftar Hadir Terlampir.</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
     </row>
     <row r="14" spans="1:16" ht="8.4499999999999993" customHeight="1">
       <c r="A14" s="9"/>
@@ -2594,24 +2810,24 @@
       <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:16" ht="33" customHeight="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
     </row>
     <row r="16" spans="1:16" ht="11.25" customHeight="1">
       <c r="A16" s="26"/>
@@ -2660,7 +2876,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="68"/>
@@ -2680,20 +2896,20 @@
       <c r="C19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
+      <c r="D19" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
@@ -2838,12 +3054,12 @@
         <v>0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -2859,12 +3075,12 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -2953,31 +3169,31 @@
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:17" ht="49.7" customHeight="1">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
@@ -3078,24 +3294,24 @@
       <c r="O37" s="8"/>
     </row>
     <row r="38" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
     </row>
     <row r="39" spans="1:16" ht="18" customHeight="1">
       <c r="A39" s="26"/>
@@ -3123,17 +3339,18 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
+      <c r="H40" s="66" t="str">
+        <f>CONCATENATE(BIODATA!B4,", ",BIODATA!B19," ",BIODATA!B20," ",BIODATA!B21)</f>
+        <v>Kambingan Barat, 05 Desember 2019</v>
+      </c>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
     </row>
     <row r="41" spans="1:16" ht="16.5">
       <c r="A41" s="9"/>
@@ -3153,34 +3370,36 @@
       <c r="O41" s="8"/>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A42" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
+      <c r="A42" s="69" t="str">
+        <f>CONCATENATE("Kepala Desa ",BIODATA!B4," ,")</f>
+        <v>Kepala Desa Kambingan Barat ,</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="66" t="str">
+        <f>CONCATENATE("Ketua BPD ",BIODATA!B4," ,")</f>
+        <v>Ketua BPD Kambingan Barat ,</v>
+      </c>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
     </row>
     <row r="43" spans="1:16" ht="27" customHeight="1">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -3226,26 +3445,28 @@
       <c r="O45" s="8"/>
     </row>
     <row r="46" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A46" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
+      <c r="A46" s="70" t="str">
+        <f>BIODATA!B10</f>
+        <v>AKH. ZAINUDDIN, SE.MM.</v>
+      </c>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70" t="str">
+        <f>BIODATA!B14</f>
+        <v>MUNIHAM</v>
+      </c>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
     </row>
     <row r="47" spans="1:16" ht="16.5">
       <c r="A47" s="9"/>
@@ -3286,16 +3507,16 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="8"/>
@@ -3339,16 +3560,17 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
+      <c r="E52" s="66" t="str">
+        <f>BIODATA!B26</f>
+        <v>NASIRUDDIN</v>
+      </c>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="8"/>
@@ -3371,6 +3593,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="C23:P23"/>
+    <mergeCell ref="C17:P17"/>
     <mergeCell ref="E49:L49"/>
     <mergeCell ref="E52:L52"/>
     <mergeCell ref="A38:P38"/>
@@ -3385,19 +3620,6 @@
     <mergeCell ref="B33:P33"/>
     <mergeCell ref="B34:P34"/>
     <mergeCell ref="B35:P35"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="C23:P23"/>
-    <mergeCell ref="C17:P17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.69" right="0.53" top="0.39370078740157499" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3408,15 +3630,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="90" zoomScaleSheetLayoutView="93" zoomScalePageLayoutView="93" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A81" zoomScale="93" zoomScaleNormal="90" zoomScaleSheetLayoutView="93" zoomScalePageLayoutView="93" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -3434,40 +3656,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6.75" customHeight="1"/>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="A3" s="77" t="str">
+        <f>CONCATENATE("RENCANA KERJA PEMERINTAH DESA (R-RKP DESA) TAHUN ",BIODATA!B1)</f>
+        <v>RENCANA KERJA PEMERINTAH DESA (R-RKP DESA) TAHUN 2020</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="A4" s="77" t="str">
+        <f>UPPER(CONCATENATE("DESA ",BIODATA!B4," KECAMATAN ",BIODATA!B5," KABUPATEN ",BIODATA!B6))</f>
+        <v>DESA KAMBINGAN BARAT KECAMATAN LENTENG KABUPATEN SUMENEP</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="33" customHeight="1">
       <c r="A5" s="20"/>
@@ -3480,44 +3704,53 @@
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A6" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="80"/>
+      <c r="A6" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="78"/>
       <c r="C6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="D6" s="80" t="str">
+        <f>BIODATA!B18</f>
+        <v>Kamis</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="24.95" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="D7" s="80" t="str">
+        <f>CONCATENATE(BIODATA!B19," ",BIODATA!B20," ",BIODATA!B21)</f>
+        <v>05 Desember 2019</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="24.95" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
+      <c r="D8" s="115" t="str">
+        <f>BIODATA!B23</f>
+        <v>Balai Desa Kambingan Barat</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
@@ -3525,49 +3758,49 @@
       <c r="A10" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="35" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="83"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="36">
         <v>1</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="82">
         <v>2</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="36">
         <v>3</v>
       </c>
       <c r="F11" s="36">
         <v>4</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="82">
         <v>5</v>
       </c>
-      <c r="H11" s="86"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:8" ht="24.95" customHeight="1">
       <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="30"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
@@ -3578,9 +3811,9 @@
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="32"/>
@@ -3591,9 +3824,9 @@
         <f t="shared" ref="A14:A84" si="0">A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
@@ -3604,9 +3837,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="32"/>
@@ -3617,9 +3850,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="32"/>
@@ -3630,9 +3863,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="30"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
@@ -3643,9 +3876,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="30"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32"/>
@@ -3656,9 +3889,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="30"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
@@ -3669,9 +3902,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="30"/>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
@@ -3682,9 +3915,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="30"/>
       <c r="F21" s="31"/>
       <c r="G21" s="32"/>
@@ -3695,9 +3928,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
@@ -3708,9 +3941,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="30"/>
       <c r="F23" s="31"/>
       <c r="G23" s="32"/>
@@ -3721,9 +3954,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="30"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
@@ -3734,9 +3967,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="30"/>
       <c r="F25" s="31"/>
       <c r="G25" s="32"/>
@@ -3747,9 +3980,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="30"/>
       <c r="F26" s="31"/>
       <c r="G26" s="32"/>
@@ -3760,9 +3993,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="30"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
@@ -3773,9 +4006,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="30"/>
       <c r="F28" s="31"/>
       <c r="G28" s="32"/>
@@ -3786,9 +4019,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="30"/>
       <c r="F29" s="31"/>
       <c r="G29" s="32"/>
@@ -3799,9 +4032,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
@@ -3812,9 +4045,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
@@ -3825,9 +4058,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="30"/>
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
@@ -3838,9 +4071,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="30"/>
       <c r="F33" s="31"/>
       <c r="G33" s="32"/>
@@ -3851,9 +4084,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="30"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -3864,9 +4097,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
       <c r="G35" s="32"/>
@@ -3877,9 +4110,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="30"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
@@ -3890,9 +4123,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="30"/>
       <c r="F37" s="31"/>
       <c r="G37" s="32"/>
@@ -3903,9 +4136,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="30"/>
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
@@ -3916,9 +4149,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="30"/>
       <c r="F39" s="31"/>
       <c r="G39" s="32"/>
@@ -3929,9 +4162,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="30"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
@@ -3942,9 +4175,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
       <c r="E41" s="30"/>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
@@ -4449,9 +4682,9 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B80" s="75"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="77"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="30"/>
       <c r="F80" s="31"/>
       <c r="G80" s="32"/>
@@ -4462,9 +4695,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B81" s="75"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="77"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="75"/>
       <c r="E81" s="30"/>
       <c r="F81" s="31"/>
       <c r="G81" s="32"/>
@@ -4475,9 +4708,9 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B82" s="75"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="77"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="75"/>
       <c r="E82" s="30"/>
       <c r="F82" s="31"/>
       <c r="G82" s="32"/>
@@ -4488,9 +4721,9 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B83" s="75"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="77"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
       <c r="E83" s="30"/>
       <c r="F83" s="31"/>
       <c r="G83" s="32"/>
@@ -4592,9 +4825,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B91" s="75"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="77"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="75"/>
       <c r="E91" s="30"/>
       <c r="F91" s="31"/>
       <c r="G91" s="32"/>
@@ -4611,11 +4844,12 @@
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="F93" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="G93" s="73"/>
-      <c r="H93" s="73"/>
+      <c r="F93" s="85" t="str">
+        <f>CONCATENATE(BIODATA!B4,", ",BIODATA!B19," ",BIODATA!B20," ",BIODATA!B21)</f>
+        <v>Kambingan Barat, 05 Desember 2019</v>
+      </c>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
     </row>
     <row r="94" spans="1:8">
       <c r="F94" s="21"/>
@@ -4623,34 +4857,36 @@
       <c r="H94" s="21"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="86"/>
       <c r="F95" s="41"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="58"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
+      <c r="B96" s="86" t="str">
+        <f>CONCATENATE("Kepala Desa ",BIODATA!B4)</f>
+        <v>Kepala Desa Kambingan Barat</v>
+      </c>
+      <c r="C96" s="86"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86" t="str">
+        <f>CONCATENATE("Ketua BPD ",BIODATA!B4)</f>
+        <v>Ketua BPD Kambingan Barat</v>
+      </c>
+      <c r="G96" s="86"/>
+      <c r="H96" s="86"/>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" s="41"/>
@@ -4683,20 +4919,63 @@
       <c r="H100" s="41"/>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
+      <c r="B101" s="86" t="str">
+        <f>BIODATA!B10</f>
+        <v>AKH. ZAINUDDIN, SE.MM.</v>
+      </c>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86" t="str">
+        <f>BIODATA!B14</f>
+        <v>MUNIHAM</v>
+      </c>
+      <c r="G101" s="86"/>
+      <c r="H101" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -4709,47 +4988,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="B95:E95"/>
   </mergeCells>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.55118110236220474" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="77" orientation="portrait" r:id="rId1"/>
@@ -4759,15 +4997,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A46" zoomScale="106" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B52" sqref="B14:E52"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -5540,35 +5778,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="9.75" customHeight="1"/>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="A2" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:7" ht="20.25">
-      <c r="A3" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
+      <c r="A3" s="90" t="str">
+        <f>CONCATENATE("RENCANA KERJA PEMERINTAH DESA TAHUN ",BIODATA!B1)</f>
+        <v>RENCANA KERJA PEMERINTAH DESA TAHUN 2020</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:7" ht="9.75" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="47"/>
@@ -5586,8 +5825,9 @@
       <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>127</v>
+      <c r="D6" s="12" t="str">
+        <f>BIODATA!B4</f>
+        <v>Kambingan Barat</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5598,8 +5838,9 @@
       <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>128</v>
+      <c r="D7" s="12" t="str">
+        <f>BIODATA!B5</f>
+        <v>Lenteng</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5610,8 +5851,9 @@
       <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>129</v>
+      <c r="D8" s="12" t="str">
+        <f>BIODATA!B6</f>
+        <v>Sumenep</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -5623,194 +5865,195 @@
       <c r="C9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>130</v>
+      <c r="D9" s="12" t="str">
+        <f>BIODATA!B7</f>
+        <v>Jawa Timur</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="94" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="95" t="s">
-        <v>52</v>
+      <c r="G11" s="92" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="96"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="97"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="94"/>
     </row>
     <row r="14" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A14" s="55"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="87"/>
       <c r="C14" s="88"/>
       <c r="D14" s="89"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="49"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A15" s="55"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="87"/>
       <c r="C15" s="88"/>
       <c r="D15" s="89"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="49"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
       <c r="D16" s="89"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="49"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A17" s="55"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="87"/>
       <c r="C17" s="88"/>
       <c r="D17" s="89"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="49"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A18" s="55"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="D18" s="89"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="49"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="87"/>
       <c r="C19" s="88"/>
       <c r="D19" s="89"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="49"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A20" s="55"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="D20" s="89"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="49"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A21" s="55"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="87"/>
       <c r="C21" s="88"/>
       <c r="D21" s="89"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="49"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A22" s="55"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="D22" s="89"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="49"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A23" s="55"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="87"/>
       <c r="C23" s="88"/>
       <c r="D23" s="89"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="49"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A24" s="55"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="87"/>
       <c r="C24" s="88"/>
       <c r="D24" s="89"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="49"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A25" s="55"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="87"/>
       <c r="C25" s="88"/>
       <c r="D25" s="89"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="49"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
-      <c r="A26" s="55"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
       <c r="D26" s="89"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="49"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A27" s="55"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="87"/>
       <c r="C27" s="88"/>
       <c r="D27" s="89"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="49"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A28" s="55"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="87"/>
       <c r="C28" s="88"/>
       <c r="D28" s="89"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="49"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="87"/>
       <c r="C29" s="88"/>
       <c r="D29" s="89"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="49"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" ht="24" customHeight="1">
-      <c r="A30" s="55"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="87"/>
       <c r="C30" s="88"/>
       <c r="D30" s="89"/>
@@ -5819,7 +6062,7 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A31" s="55"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
       <c r="D31" s="89"/>
@@ -5828,7 +6071,7 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A32" s="55"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
       <c r="D32" s="89"/>
@@ -5837,7 +6080,7 @@
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="24" customHeight="1">
-      <c r="A33" s="55"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="87"/>
       <c r="C33" s="88"/>
       <c r="D33" s="89"/>
@@ -5846,173 +6089,173 @@
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1">
-      <c r="A34" s="55"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="49"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="15"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="24" customHeight="1">
-      <c r="A35" s="55"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="87"/>
       <c r="C35" s="88"/>
       <c r="D35" s="89"/>
-      <c r="E35" s="49"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="15"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="24" customHeight="1">
-      <c r="A36" s="55"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="87"/>
       <c r="C36" s="88"/>
       <c r="D36" s="89"/>
-      <c r="E36" s="49"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="15"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="24" customHeight="1">
-      <c r="A37" s="55"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="87"/>
       <c r="C37" s="88"/>
       <c r="D37" s="89"/>
-      <c r="E37" s="49"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="15"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1">
-      <c r="A38" s="55"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
       <c r="D38" s="89"/>
-      <c r="E38" s="49"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="15"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" ht="24" customHeight="1">
-      <c r="A39" s="55"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="87"/>
       <c r="C39" s="88"/>
       <c r="D39" s="89"/>
-      <c r="E39" s="49"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="15"/>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A40" s="55"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="87"/>
       <c r="C40" s="88"/>
       <c r="D40" s="89"/>
-      <c r="E40" s="49"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="15"/>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="24" customHeight="1">
-      <c r="A41" s="55"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="87"/>
       <c r="C41" s="88"/>
       <c r="D41" s="89"/>
-      <c r="E41" s="49"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="15"/>
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="24" customHeight="1">
-      <c r="A42" s="55"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="87"/>
       <c r="C42" s="88"/>
       <c r="D42" s="89"/>
-      <c r="E42" s="49"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="15"/>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1">
-      <c r="A43" s="55"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="87"/>
       <c r="C43" s="88"/>
       <c r="D43" s="89"/>
-      <c r="E43" s="49"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="15"/>
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A44" s="55"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="87"/>
       <c r="C44" s="88"/>
       <c r="D44" s="89"/>
-      <c r="E44" s="49"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="15"/>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A45" s="55"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="87"/>
       <c r="C45" s="88"/>
       <c r="D45" s="89"/>
-      <c r="E45" s="49"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="15"/>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="24" customHeight="1">
-      <c r="A46" s="55"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
       <c r="D46" s="89"/>
-      <c r="E46" s="49"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="15"/>
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1">
-      <c r="A47" s="55"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="87"/>
       <c r="C47" s="88"/>
       <c r="D47" s="89"/>
-      <c r="E47" s="49"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="15"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="24" customHeight="1">
-      <c r="A48" s="55"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="87"/>
       <c r="C48" s="88"/>
       <c r="D48" s="89"/>
-      <c r="E48" s="49"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="15"/>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="24" customHeight="1">
-      <c r="A49" s="55"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="87"/>
       <c r="C49" s="88"/>
       <c r="D49" s="89"/>
-      <c r="E49" s="49"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="15"/>
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A50" s="55"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="87"/>
       <c r="C50" s="88"/>
       <c r="D50" s="89"/>
-      <c r="E50" s="49"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="15"/>
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A51" s="55"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="87"/>
       <c r="C51" s="88"/>
       <c r="D51" s="89"/>
-      <c r="E51" s="49"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="15"/>
       <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" ht="24" customHeight="1">
-      <c r="A52" s="55"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="87"/>
       <c r="C52" s="88"/>
       <c r="D52" s="89"/>
-      <c r="E52" s="49"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="15"/>
       <c r="G52" s="16"/>
     </row>
@@ -6021,11 +6264,12 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
+      <c r="E53" s="79" t="str">
+        <f>CONCATENATE(BIODATA!B4,", ",BIODATA!B19," ",BIODATA!B20," ",BIODATA!B21)</f>
+        <v>Kambingan Barat, 05 Desember 2019</v>
+      </c>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1">
       <c r="A54" s="5"/>
@@ -6041,38 +6285,35 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="56"/>
+      <c r="E55" s="55"/>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1">
       <c r="A56" s="12"/>
-      <c r="B56" s="74" t="s">
+      <c r="B56" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1">
       <c r="A57" s="12"/>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1">
       <c r="A58" s="12"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="40"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="40"/>
       <c r="G58" s="41"/>
     </row>
@@ -6099,43 +6340,42 @@
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
       <c r="D61" s="42"/>
-      <c r="E61" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="B62" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="G62" s="48"/>
+      <c r="B62" s="86" t="str">
+        <f>BIODATA!B14</f>
+        <v>MUNIHAM</v>
+      </c>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86" t="str">
+        <f>BIODATA!B15</f>
+        <v>MOH. USMAN</v>
+      </c>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
@@ -6152,21 +6392,26 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.35433070866141736" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>
@@ -6176,15 +6421,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6990,86 +7235,86 @@
       <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:30" ht="26.25">
-      <c r="A2" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
+      <c r="A2" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
     </row>
     <row r="3" spans="1:30" ht="18">
-      <c r="A3" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
+      <c r="A3" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
     </row>
     <row r="4" spans="1:30" ht="18.75" thickBot="1">
-      <c r="A4" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="AD4" s="59"/>
+      <c r="A4" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="AD4" s="58"/>
     </row>
     <row r="5" spans="1:30" ht="15.75">
       <c r="A5" s="45"/>
@@ -7112,7 +7357,7 @@
       <c r="N6" s="45"/>
       <c r="O6" s="45"/>
       <c r="P6" s="68" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="68"/>
       <c r="R6" s="68"/>
@@ -7164,7 +7409,7 @@
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R8" s="68"/>
       <c r="S8" s="68"/>
@@ -7175,7 +7420,7 @@
     </row>
     <row r="9" spans="1:30" ht="28.5" customHeight="1">
       <c r="A9" s="68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
@@ -7183,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -7196,10 +7441,10 @@
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
@@ -7210,15 +7455,15 @@
     </row>
     <row r="10" spans="1:30" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
       <c r="D10" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>67</v>
+      <c r="E10" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
@@ -7232,7 +7477,7 @@
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
@@ -7243,15 +7488,15 @@
     </row>
     <row r="11" spans="1:30" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
       <c r="D11" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="60" t="s">
-        <v>68</v>
+      <c r="E11" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -7266,7 +7511,7 @@
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
       <c r="R11" s="43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S11" s="43"/>
       <c r="T11" s="43"/>
@@ -7329,27 +7574,27 @@
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
-      <c r="E14" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
+      <c r="E14" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
     </row>
     <row r="15" spans="1:30" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="43"/>
@@ -7357,7 +7602,7 @@
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -7409,7 +7654,7 @@
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
       <c r="E17" s="68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="43" t="s">
@@ -7438,7 +7683,7 @@
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="43" t="s">
@@ -7466,10 +7711,10 @@
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="109"/>
+      <c r="E19" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="107"/>
       <c r="G19" s="43" t="s">
         <v>0</v>
       </c>
@@ -7575,27 +7820,27 @@
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
+      <c r="E23" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
     </row>
     <row r="24" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="43"/>
@@ -7662,17 +7907,17 @@
       <c r="L26" s="43"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
-      <c r="O26" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
+      <c r="O26" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
     </row>
     <row r="27" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="43"/>
@@ -7764,17 +8009,17 @@
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
-      <c r="O30" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
+      <c r="O30" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
     </row>
     <row r="31" spans="1:24" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="43"/>
@@ -8403,12 +8648,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H20:V20"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="O30:W30"/>
     <mergeCell ref="A2:W2"/>
@@ -8425,6 +8664,12 @@
     <mergeCell ref="E23:W23"/>
     <mergeCell ref="P6:W6"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.69" right="0.53" top="0.39370078740157499" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8435,14 +8680,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="106" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="106" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -8451,7 +8696,7 @@
     <col min="1" max="1" width="6" style="12" customWidth="1"/>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="59.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="26.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" style="12" customWidth="1"/>
     <col min="7" max="248" width="9.140625" style="12"/>
@@ -9215,359 +9460,369 @@
   <sheetData>
     <row r="1" spans="1:6" ht="9.75" customHeight="1"/>
     <row r="2" spans="1:6" ht="20.25">
-      <c r="A2" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="57"/>
+      <c r="A2" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="20.25">
-      <c r="A3" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" ht="20.25">
-      <c r="A4" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="57"/>
+      <c r="A4" s="116" t="str">
+        <f>UPPER(CONCATENATE("DESA ",BIODATA!B4," KECAMATAN ",BIODATA!B5," KABUPATEN ",BIODATA!B6))</f>
+        <v>DESA KAMBINGAN BARAT KECAMATAN LENTENG KABUPATEN SUMENEP</v>
+      </c>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="9.75" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D7" s="12" t="str">
+        <f>BIODATA!B18</f>
+        <v>Kamis</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D8" s="12" t="str">
+        <f>CONCATENATE(BIODATA!B19," ",BIODATA!B20," ",BIODATA!B21)</f>
+        <v>05 Desember 2019</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>106</v>
+      <c r="D9" s="117" t="str">
+        <f>BIODATA!B23</f>
+        <v>Balai Desa Kambingan Barat</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="7.5" customHeight="1">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="54"/>
+      <c r="B11" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="54"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="54"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1">
       <c r="A14" s="15">
         <v>1</v>
       </c>
-      <c r="B14" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="62"/>
+      <c r="B14" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1">
       <c r="A15" s="15">
         <v>2</v>
       </c>
-      <c r="B15" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="62"/>
+      <c r="B15" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1">
       <c r="A16" s="15">
         <v>3</v>
       </c>
-      <c r="B16" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="62"/>
+      <c r="B16" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1">
       <c r="A17" s="15">
         <v>4</v>
       </c>
-      <c r="B17" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="62"/>
+      <c r="B17" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" ht="30.75" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="63" t="s">
+      <c r="B18" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="63" t="s">
+      <c r="B19" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="62"/>
+      <c r="B20" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1">
       <c r="A22" s="15">
         <v>5</v>
       </c>
-      <c r="B22" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="62"/>
+      <c r="B22" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="63" t="s">
+      <c r="B23" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="62"/>
+      <c r="B24" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="63" t="s">
+      <c r="B25" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="113"/>
+      <c r="B26" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="62"/>
+        <v>92</v>
+      </c>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="111" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
+      <c r="B27" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
+      <c r="B28" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="62"/>
+        <v>93</v>
+      </c>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
+      <c r="B29" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="62"/>
+        <v>74</v>
+      </c>
+      <c r="F29" s="61"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
+      <c r="B30" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="111"/>
+      <c r="D30" s="112"/>
       <c r="E30" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="62"/>
+        <v>74</v>
+      </c>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1">
       <c r="A31" s="15">
         <v>6</v>
       </c>
-      <c r="B31" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
+      <c r="B31" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1">
       <c r="A32" s="15">
         <v>7</v>
       </c>
-      <c r="B32" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
+      <c r="B32" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
       <c r="E32" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="62"/>
+        <v>94</v>
+      </c>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1">
       <c r="A33" s="15">
         <v>8</v>
       </c>
-      <c r="B33" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
+      <c r="B33" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="62"/>
+        <v>74</v>
+      </c>
+      <c r="F33" s="61"/>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
       <c r="A34" s="18"/>
@@ -9581,11 +9836,12 @@
       <c r="A35" s="5"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="50"/>
+      <c r="D35" s="85" t="str">
+        <f>CONCATENATE(BIODATA!B4,", ",BIODATA!B19," ",BIODATA!B20," ",BIODATA!B21)</f>
+        <v>Kambingan Barat, 05 Desember 2019</v>
+      </c>
+      <c r="E35" s="85"/>
+      <c r="F35" s="49"/>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1">
       <c r="A36" s="5"/>
@@ -9593,25 +9849,25 @@
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="51"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="53"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="86"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="53"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1">
       <c r="A39" s="12"/>
@@ -9639,29 +9895,39 @@
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1">
       <c r="A42" s="12"/>
-      <c r="B42" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="53"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="86" t="str">
+        <f>BIODATA!B15</f>
+        <v>MOH. USMAN</v>
+      </c>
+      <c r="E42" s="86"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B23:D23"/>
@@ -9672,25 +9938,15 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:E13"/>
   </mergeCells>
-  <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.35433070866141736" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="10000" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Bookman Old Style,Regular"&amp;12- 26 -</oddHeader>
   </headerFooter>
